--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -62,9 +62,6 @@
     <t>109</t>
   </si>
   <si>
-    <t>146</t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>146,109</t>
-  </si>
-  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -416,133 +410,133 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Assenso figlio</t>
+    <t>Atto Assenso Figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>Consenso madre</t>
+    <t>Atto Consenso Madre</t>
   </si>
   <si>
     <t>evento.consensoMadre.atto</t>
   </si>
   <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>Atto riconoscimento materno</t>
+  </si>
+  <si>
+    <t>Avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoMadre</t>
+  </si>
+  <si>
+    <t>avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoMadre.atto</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
+  </si>
+  <si>
+    <t>preMorto</t>
+  </si>
+  <si>
+    <t>Presenza discendenti</t>
+  </si>
+  <si>
+    <t>presenzaDiscendenti</t>
+  </si>
+  <si>
+    <t>Tipologia consenso della madre</t>
+  </si>
+  <si>
     <t>evento.consensoMadre</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>Atto riconoscimento materno</t>
-  </si>
-  <si>
-    <t>Avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoMadre</t>
-  </si>
-  <si>
-    <t>avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoMadre.atto</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>preMorto</t>
-  </si>
-  <si>
-    <t>Presenza discendenti</t>
-  </si>
-  <si>
-    <t>presenzaDiscendenti</t>
-  </si>
-  <si>
-    <t>Tipologia consenso della madre</t>
   </si>
   <si>
     <t>tipoConsenso</t>
@@ -610,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -752,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -865,60 +859,60 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -926,19 +920,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -946,19 +940,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -966,19 +960,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -986,19 +980,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -1006,19 +1000,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -1026,19 +1020,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -1046,19 +1040,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -1066,19 +1060,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1086,19 +1080,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1106,19 +1100,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -1126,19 +1120,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1146,19 +1140,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1166,19 +1160,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1186,19 +1180,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1206,19 +1200,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1226,19 +1220,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1246,19 +1240,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1266,19 +1260,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1286,19 +1280,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1306,19 +1300,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1326,19 +1320,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1346,19 +1340,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1366,19 +1360,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1386,19 +1380,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1406,19 +1400,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1426,19 +1420,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1446,59 +1440,59 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1506,19 +1500,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1526,19 +1520,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1546,19 +1540,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1566,19 +1560,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1586,99 +1580,99 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1686,19 +1680,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1706,19 +1700,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1726,19 +1720,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1746,79 +1740,79 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>15</v>
@@ -1826,39 +1820,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1866,19 +1860,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1886,59 +1880,59 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1946,19 +1940,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1966,19 +1960,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1986,19 +1980,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2006,19 +2000,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2026,99 +2020,99 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2126,19 +2120,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2146,19 +2140,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2166,19 +2160,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2186,79 +2180,79 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>15</v>
@@ -2266,39 +2260,39 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2306,19 +2300,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2329,56 +2323,56 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2386,19 +2380,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2406,19 +2400,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2426,19 +2420,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2446,19 +2440,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2466,99 +2460,99 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2566,19 +2560,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2586,19 +2580,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2606,19 +2600,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2626,79 +2620,79 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>15</v>
@@ -2706,39 +2700,39 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2746,19 +2740,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2769,16 +2763,16 @@
         <v>88</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2786,16 +2780,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>93</v>
@@ -2806,7 +2800,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>94</v>
@@ -2815,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>95</v>
@@ -2826,7 +2820,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>96</v>
@@ -2835,7 +2829,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>97</v>
@@ -2846,7 +2840,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>98</v>
@@ -2855,7 +2849,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>99</v>
@@ -2866,7 +2860,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>100</v>
@@ -2875,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>101</v>
@@ -2886,7 +2880,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>102</v>
@@ -2895,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>103</v>
@@ -2906,7 +2900,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>104</v>
@@ -2915,10 +2909,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -2926,10 +2920,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
@@ -2938,7 +2932,7 @@
         <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -2946,19 +2940,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -2966,19 +2960,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -2986,19 +2980,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3006,19 +3000,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3026,19 +3020,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3046,19 +3040,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3066,19 +3060,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3086,19 +3080,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3106,19 +3100,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3126,19 +3120,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3146,19 +3140,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3166,19 +3160,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3186,19 +3180,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -3206,19 +3200,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3226,19 +3220,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3246,19 +3240,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3266,19 +3260,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>9</v>
@@ -3286,19 +3280,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3306,19 +3300,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>9</v>
@@ -3326,19 +3320,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3346,19 +3340,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3369,16 +3363,16 @@
         <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3386,16 +3380,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>113</v>
@@ -3406,7 +3400,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>114</v>
@@ -3415,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>115</v>
@@ -3426,7 +3420,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>116</v>
@@ -3435,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>117</v>
@@ -3446,7 +3440,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>118</v>
@@ -3455,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>119</v>
@@ -3466,7 +3460,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>120</v>
@@ -3475,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>121</v>
@@ -3486,7 +3480,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>122</v>
@@ -3495,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3506,19 +3500,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3526,7 +3520,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>125</v>
@@ -3535,10 +3529,10 @@
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3546,19 +3540,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3566,16 +3560,16 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>129</v>
@@ -3586,7 +3580,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>130</v>
@@ -3595,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>131</v>
@@ -3606,19 +3600,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3626,16 +3620,16 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>113</v>
@@ -3646,7 +3640,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
@@ -3655,7 +3649,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>115</v>
@@ -3666,7 +3660,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>116</v>
@@ -3675,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>117</v>
@@ -3686,7 +3680,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>118</v>
@@ -3695,7 +3689,7 @@
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>119</v>
@@ -3706,7 +3700,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>120</v>
@@ -3715,7 +3709,7 @@
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>121</v>
@@ -3726,7 +3720,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>122</v>
@@ -3735,10 +3729,10 @@
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3746,19 +3740,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3766,7 +3760,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>125</v>
@@ -3775,10 +3769,10 @@
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -3786,19 +3780,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -3806,7 +3800,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>128</v>
@@ -3815,7 +3809,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>129</v>
@@ -3826,7 +3820,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>130</v>
@@ -3835,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>131</v>
@@ -3849,7 +3843,7 @@
         <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
@@ -3858,7 +3852,7 @@
         <v>135</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -3866,16 +3860,16 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>113</v>
@@ -3886,7 +3880,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>114</v>
@@ -3895,18 +3889,18 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>116</v>
@@ -3915,18 +3909,18 @@
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>118</v>
@@ -3935,18 +3929,18 @@
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>120</v>
@@ -3955,18 +3949,18 @@
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>122</v>
@@ -3975,30 +3969,30 @@
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>15</v>
@@ -4006,7 +4000,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>125</v>
@@ -4015,10 +4009,10 @@
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>15</v>
@@ -4026,19 +4020,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>15</v>
@@ -4046,7 +4040,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>128</v>
@@ -4055,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>129</v>
@@ -4066,7 +4060,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>130</v>
@@ -4075,7 +4069,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>131</v>
@@ -4086,10 +4080,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -4098,7 +4092,7 @@
         <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>15</v>
@@ -4106,39 +4100,39 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>15</v>
@@ -4146,39 +4140,39 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>15</v>
@@ -4186,19 +4180,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4206,19 +4200,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>15</v>
@@ -4226,39 +4220,39 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>15</v>
@@ -4266,19 +4260,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>15</v>
@@ -4286,39 +4280,39 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>15</v>
@@ -4326,19 +4320,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4346,19 +4340,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>15</v>
@@ -4366,19 +4360,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4386,39 +4380,39 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4426,19 +4420,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4446,19 +4440,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4466,19 +4460,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4486,19 +4480,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4506,19 +4500,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4526,19 +4520,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4546,19 +4540,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4566,19 +4560,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4586,19 +4580,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4606,19 +4600,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4626,139 +4620,139 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -4766,39 +4760,39 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -4806,39 +4800,39 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -4846,39 +4840,39 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -4886,39 +4880,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -4926,39 +4920,39 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -4966,102 +4960,102 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="223">
@@ -5069,19 +5063,19 @@
         <v>161</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
@@ -5089,36 +5083,36 @@
         <v>161</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5126,39 +5120,39 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5166,19 +5160,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5186,61 +5180,21 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F231" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -2926,7 +2926,7 @@
         <v>37</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>107</v>
@@ -2946,7 +2946,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>107</v>
@@ -2966,7 +2966,7 @@
         <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>107</v>
@@ -2986,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>107</v>
@@ -3006,7 +3006,7 @@
         <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>107</v>
@@ -3026,7 +3026,7 @@
         <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>107</v>
@@ -3046,7 +3046,7 @@
         <v>50</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>107</v>
@@ -3066,7 +3066,7 @@
         <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>107</v>
@@ -3086,7 +3086,7 @@
         <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>107</v>
@@ -3106,7 +3106,7 @@
         <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>107</v>
@@ -3126,7 +3126,7 @@
         <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>107</v>
@@ -3146,7 +3146,7 @@
         <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>107</v>
@@ -3186,7 +3186,7 @@
         <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>107</v>
@@ -3206,7 +3206,7 @@
         <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>107</v>
@@ -3226,7 +3226,7 @@
         <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>107</v>
@@ -3246,7 +3246,7 @@
         <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>107</v>
@@ -3266,7 +3266,7 @@
         <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>107</v>
@@ -3286,7 +3286,7 @@
         <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>107</v>
@@ -3306,7 +3306,7 @@
         <v>76</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>107</v>
@@ -3326,7 +3326,7 @@
         <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>107</v>
@@ -3346,7 +3346,7 @@
         <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="187">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
+  </si>
+  <si>
     <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -290,6 +299,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -416,12 +428,18 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+  </si>
+  <si>
     <t>Atto Consenso Madre</t>
   </si>
   <si>
     <t>evento.consensoMadre.atto</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,2}</t>
+  </si>
+  <si>
     <t>Data formazione documento</t>
   </si>
   <si>
@@ -431,6 +449,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,3}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -473,6 +494,9 @@
     <t>evento.consensoMadre.sentenzaTribunale</t>
   </si>
   <si>
+    <t>{evento.consensoMadre.tipoConsenso,!=,4}</t>
+  </si>
+  <si>
     <t>Atto riconoscimento materno</t>
   </si>
   <si>
@@ -495,6 +519,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -604,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -616,6 +643,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -637,225 +665,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -877,4325 +941,4976 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia dell'atto di assenso del figlio</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -942,4975 +945,4975 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
   </si>
   <si>
     <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
@@ -62,6 +62,9 @@
     <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -302,7 +305,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -431,7 +434,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
   </si>
   <si>
     <t>Atto Consenso Madre</t>
@@ -440,7 +443,7 @@
     <t>evento.consensoMadre.atto</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,2}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -452,7 +455,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,3}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -497,7 +500,7 @@
     <t>evento.consensoMadre.sentenzaTribunale</t>
   </si>
   <si>
-    <t>{evento.consensoMadre.tipoConsenso,!=,4}</t>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
   </si>
   <si>
     <t>Atto riconoscimento materno</t>
@@ -524,7 +527,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -634,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -646,7 +649,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -766,13 +769,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -789,13 +792,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -858,7 +861,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -881,7 +884,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -904,7 +907,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -926,3044 +929,3044 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>128</v>
@@ -3972,44 +3975,44 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>131</v>
@@ -4018,228 +4021,228 @@
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>128</v>
@@ -4248,274 +4251,274 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>128</v>
@@ -4524,44 +4527,44 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>131</v>
@@ -4570,573 +4573,573 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>128</v>
@@ -5145,44 +5148,44 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>131</v>
@@ -5191,729 +5194,752 @@
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F208" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F210" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F216" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F218" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F224" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>29</v>
+      <c r="C230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -320,22 +320,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -637,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3308,10 +3326,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3322,88 +3340,88 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3432,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3455,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3478,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3501,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3506,19 +3524,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3529,19 +3547,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3552,19 +3570,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3593,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3598,19 +3616,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3621,19 +3639,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3644,19 +3662,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3667,19 +3685,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3690,19 +3708,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3713,19 +3731,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3736,19 +3754,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3759,19 +3777,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3782,19 +3800,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3805,19 +3823,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3828,19 +3846,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3851,19 +3869,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3874,19 +3892,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3897,16 +3915,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>123</v>
@@ -3920,7 +3938,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>124</v>
@@ -3929,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>125</v>
@@ -3943,7 +3961,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>126</v>
@@ -3952,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>127</v>
@@ -3966,7 +3984,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>128</v>
@@ -3975,10 +3993,10 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3989,19 +4007,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4012,19 +4030,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4035,19 +4053,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4058,19 +4076,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4081,19 +4099,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4104,85 +4122,85 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>123</v>
@@ -4191,12 +4209,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>124</v>
@@ -4205,7 +4223,7 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>125</v>
@@ -4214,21 +4232,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>127</v>
@@ -4237,12 +4255,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>128</v>
@@ -4251,214 +4269,214 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>123</v>
@@ -4467,12 +4485,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>124</v>
@@ -4481,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>125</v>
@@ -4490,12 +4508,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>126</v>
@@ -4504,7 +4522,7 @@
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>127</v>
@@ -4513,12 +4531,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>128</v>
@@ -4527,228 +4545,228 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>154</v>
@@ -4757,7 +4775,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>155</v>
@@ -4766,12 +4784,12 @@
         <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>156</v>
@@ -4780,21 +4798,21 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>158</v>
@@ -4803,113 +4821,113 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>154</v>
@@ -4918,7 +4936,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>155</v>
@@ -4927,12 +4945,12 @@
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>156</v>
@@ -4941,21 +4959,21 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>158</v>
@@ -4964,47 +4982,47 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5013,53 +5031,53 @@
         <v>167</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5070,16 +5088,16 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>123</v>
@@ -5093,7 +5111,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>124</v>
@@ -5102,7 +5120,7 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>125</v>
@@ -5116,7 +5134,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>126</v>
@@ -5125,7 +5143,7 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>127</v>
@@ -5139,7 +5157,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>128</v>
@@ -5148,10 +5166,10 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5162,19 +5180,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5185,19 +5203,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5208,19 +5226,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5231,19 +5249,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5254,19 +5272,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5277,591 +5295,591 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E225" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>181</v>
@@ -5875,7 +5893,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>182</v>
@@ -5884,13 +5902,13 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>30</v>
@@ -5898,7 +5916,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>184</v>
@@ -5907,10 +5925,10 @@
         <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
@@ -5921,24 +5939,93 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -203,6 +203,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -428,22 +434,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Assenso Figlio</t>
@@ -655,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1638,22 +1644,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -1661,22 +1667,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1799,22 +1805,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>30</v>
@@ -1822,22 +1828,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>30</v>
@@ -1845,22 +1851,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>30</v>
@@ -1868,22 +1874,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1891,22 +1897,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1983,22 +1989,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
@@ -2052,22 +2058,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -2075,22 +2081,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>30</v>
@@ -2098,22 +2104,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>30</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2170,7 +2176,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
@@ -2179,7 +2185,7 @@
         <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2190,22 +2196,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2305,22 +2311,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2397,22 +2403,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2420,22 +2426,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2489,22 +2495,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>30</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2535,22 +2541,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>18</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2604,22 +2610,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2627,22 +2633,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2653,19 +2659,19 @@
         <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2676,7 +2682,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
@@ -2685,7 +2691,7 @@
         <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2699,7 +2705,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2708,7 +2714,7 @@
         <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2719,22 +2725,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2811,22 +2817,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2857,22 +2863,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2880,22 +2886,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2926,22 +2932,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2949,22 +2955,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2995,22 +3001,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3041,22 +3047,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3064,22 +3070,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3087,22 +3093,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3133,22 +3139,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3159,22 +3165,22 @@
         <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -3182,22 +3188,22 @@
         <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -3205,22 +3211,22 @@
         <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -3228,292 +3234,292 @@
         <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3530,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3553,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3570,19 +3576,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3593,19 +3599,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3616,19 +3622,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3639,19 +3645,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3662,19 +3668,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3685,19 +3691,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3708,19 +3714,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3731,19 +3737,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3754,19 +3760,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3777,19 +3783,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3800,19 +3806,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3823,19 +3829,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3846,19 +3852,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3869,19 +3875,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3892,19 +3898,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3918,16 +3924,16 @@
         <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3941,16 +3947,16 @@
         <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3964,16 +3970,16 @@
         <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3987,16 +3993,16 @@
         <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4010,16 +4016,16 @@
         <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4030,19 +4036,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4053,19 +4059,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4076,19 +4082,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4099,19 +4105,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4122,19 +4128,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4145,19 +4151,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4168,19 +4174,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4191,999 +4197,999 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>14</v>
@@ -5192,7 +5198,7 @@
         <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5203,19 +5209,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5226,19 +5232,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5249,19 +5255,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5272,19 +5278,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5295,19 +5301,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5318,19 +5324,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5341,19 +5347,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5364,33 +5370,33 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>14</v>
@@ -5399,67 +5405,67 @@
         <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>14</v>
@@ -5468,564 +5474,702 @@
         <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G228" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G229" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E233" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -287,6 +287,15 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoMadre</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -527,21 +536,6 @@
     <t>evento.consensoMadre.tipoConsenso,!=,4</t>
   </si>
   <si>
-    <t>Atto riconoscimento materno</t>
-  </si>
-  <si>
-    <t>Avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoMadre</t>
-  </si>
-  <si>
-    <t>avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoMadre.atto</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -551,7 +545,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -661,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -673,7 +670,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1685,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
@@ -1708,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -1731,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -1754,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -1777,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -1800,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -1823,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
@@ -1846,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -1869,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
@@ -1892,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
@@ -1915,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -1938,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
@@ -1961,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -1984,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -2007,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
@@ -2030,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
@@ -2053,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -2076,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
@@ -2099,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
@@ -2122,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -2145,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
@@ -2168,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -2191,50 +2188,50 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2242,19 +2239,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2262,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2285,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2308,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2331,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2357,22 +2354,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2380,22 +2377,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2403,22 +2400,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2426,19 +2423,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
@@ -2449,22 +2446,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2472,19 +2469,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2492,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2515,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2538,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2564,22 +2561,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2587,22 +2584,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2610,22 +2607,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2633,19 +2630,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2656,22 +2653,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2679,19 +2676,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2699,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2725,22 +2722,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2748,22 +2745,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2771,19 +2768,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2791,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2814,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2837,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2860,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2886,22 +2883,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2909,22 +2906,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2932,22 +2929,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2955,19 +2952,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2978,22 +2975,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -3001,19 +2998,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3021,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3044,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3067,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3093,22 +3090,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3116,22 +3113,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3139,22 +3136,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3162,19 +3159,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>18</v>
@@ -3185,22 +3182,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3208,19 +3205,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3228,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3254,39 +3251,39 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>101</v>
@@ -3295,254 +3292,254 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3550,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3576,19 +3573,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3596,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3619,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3642,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3668,19 +3665,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3691,19 +3688,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3714,19 +3711,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3737,19 +3734,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3760,19 +3757,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3783,19 +3780,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3806,19 +3803,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3829,19 +3826,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3852,19 +3849,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3872,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3895,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3921,19 +3918,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3944,19 +3941,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3964,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3990,19 +3987,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4010,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4036,19 +4033,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4059,19 +4056,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4082,19 +4079,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4105,19 +4102,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4128,19 +4125,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4151,19 +4148,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4174,19 +4171,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4197,19 +4194,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4220,19 +4217,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4243,19 +4240,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4266,19 +4263,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4289,19 +4286,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4312,278 +4309,278 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171">
@@ -4591,7 +4588,7 @@
         <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4600,7 +4597,7 @@
         <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4611,292 +4608,292 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>157</v>
@@ -4905,159 +4902,159 @@
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>157</v>
@@ -5066,122 +5063,122 @@
         <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197">
@@ -5189,30 +5186,30 @@
         <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5221,21 +5218,21 @@
         <v>175</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>14</v>
@@ -5244,21 +5241,21 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>14</v>
@@ -5267,21 +5264,21 @@
         <v>175</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>14</v>
@@ -5290,21 +5287,21 @@
         <v>175</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>14</v>
@@ -5313,21 +5310,21 @@
         <v>175</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>14</v>
@@ -5336,90 +5333,90 @@
         <v>175</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5428,21 +5425,21 @@
         <v>175</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5451,21 +5448,21 @@
         <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>14</v>
@@ -5474,702 +5471,426 @@
         <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="G214" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="G216" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="G217" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -287,253 +287,259 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>opzionale</t>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Figlio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Dati Riconoscimento - Dati di morte</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>oraMorte</t>
+  </si>
+  <si>
+    <t>minuti</t>
+  </si>
+  <si>
+    <t>minutoMorte</t>
+  </si>
+  <si>
+    <t>Stato di morte</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzoMorte</t>
+  </si>
+  <si>
+    <t>Dati prodotti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Atto Consenso Madre</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Atto riconoscimento materno</t>
+  </si>
+  <si>
+    <t>Avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoMadre</t>
   </si>
   <si>
     <t>avvenuto</t>
   </si>
   <si>
-    <t>evento.riconoscimentoMadre</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>Figlio</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
-  </si>
-  <si>
-    <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+    <t>evento.riconoscimentoMadre.atto</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -546,9 +552,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -658,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1682,7 +1685,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1705,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1728,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1751,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1774,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1797,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1820,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1843,7 +1846,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1866,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1892,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -1912,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1935,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -1958,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -1981,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -2004,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -2027,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -2050,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -2073,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -2096,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -2119,7 +2122,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -2142,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -2165,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -2188,50 +2191,50 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2239,19 +2242,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2265,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2288,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2311,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2334,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2354,22 +2357,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2377,22 +2380,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2400,22 +2403,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2423,19 +2426,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
@@ -2446,22 +2449,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2469,19 +2472,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2495,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2518,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2541,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2561,22 +2564,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2584,22 +2587,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2607,22 +2610,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2630,19 +2633,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2653,22 +2656,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2676,19 +2679,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2702,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2722,22 +2725,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2745,22 +2748,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2768,19 +2771,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2794,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2817,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2840,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2863,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2883,22 +2886,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2906,22 +2909,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2929,22 +2932,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2952,19 +2955,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2975,22 +2978,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2998,19 +3001,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3024,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3047,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3070,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3090,22 +3093,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3113,22 +3116,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3136,22 +3139,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3159,19 +3162,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>18</v>
@@ -3182,22 +3185,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3205,19 +3208,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3231,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3251,39 +3254,39 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>101</v>
@@ -3292,254 +3295,254 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3550,19 +3553,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3573,19 +3576,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3596,19 +3599,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3619,19 +3622,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3642,19 +3645,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3665,19 +3668,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3688,19 +3691,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3711,19 +3714,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3734,19 +3737,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3757,19 +3760,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3780,19 +3783,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3803,19 +3806,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3826,19 +3829,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3849,19 +3852,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3872,19 +3875,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3895,19 +3898,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3918,19 +3921,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3941,19 +3944,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3964,19 +3967,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3990,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4013,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4033,19 +4036,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4056,19 +4059,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4079,19 +4082,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4105,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4128,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4151,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4171,19 +4174,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4194,19 +4197,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4217,19 +4220,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4240,19 +4243,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4263,19 +4266,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4289,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4309,278 +4312,278 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
@@ -4588,7 +4591,7 @@
         <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4597,7 +4600,7 @@
         <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4608,292 +4611,292 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>157</v>
@@ -4902,159 +4905,159 @@
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>157</v>
@@ -5063,122 +5066,122 @@
         <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197">
@@ -5186,30 +5189,30 @@
         <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5218,21 +5221,21 @@
         <v>175</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>14</v>
@@ -5241,21 +5244,21 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>14</v>
@@ -5264,21 +5267,21 @@
         <v>175</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>14</v>
@@ -5287,21 +5290,21 @@
         <v>175</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>14</v>
@@ -5310,21 +5313,21 @@
         <v>175</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>14</v>
@@ -5333,90 +5336,90 @@
         <v>175</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5425,21 +5428,21 @@
         <v>175</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5448,21 +5451,21 @@
         <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>14</v>
@@ -5471,426 +5474,702 @@
         <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G220" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B227" s="2" t="s">
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="C239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -287,6 +287,15 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>avvenuto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimentoMadre</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -527,21 +536,6 @@
     <t>evento.consensoMadre.tipoConsenso,!=,4</t>
   </si>
   <si>
-    <t>Atto riconoscimento materno</t>
-  </si>
-  <si>
-    <t>Avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoMadre</t>
-  </si>
-  <si>
-    <t>avvenuto</t>
-  </si>
-  <si>
-    <t>evento.riconoscimentoMadre.atto</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -552,6 +546,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -661,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1685,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
@@ -1708,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -1731,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -1754,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -1777,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -1800,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -1823,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
@@ -1846,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -1869,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
@@ -1892,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54">
@@ -1915,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -1938,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
@@ -1961,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -1984,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -2007,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59">
@@ -2030,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
@@ -2053,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -2076,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
@@ -2099,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
@@ -2122,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64">
@@ -2145,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
@@ -2168,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
@@ -2191,50 +2188,50 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2242,19 +2239,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2262,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2285,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2308,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2331,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2357,22 +2354,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2380,22 +2377,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2403,22 +2400,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2426,19 +2423,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
@@ -2449,22 +2446,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2472,19 +2469,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2492,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2515,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2538,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2564,22 +2561,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>30</v>
@@ -2587,22 +2584,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2610,22 +2607,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2633,19 +2630,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2656,22 +2653,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2679,19 +2676,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2699,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2725,22 +2722,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2748,22 +2745,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2771,19 +2768,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2791,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2814,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2837,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2860,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2886,22 +2883,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2909,22 +2906,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2932,22 +2929,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2955,19 +2952,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2978,22 +2975,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -3001,19 +2998,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3021,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3044,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3067,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3093,22 +3090,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3116,22 +3113,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3139,22 +3136,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3162,19 +3159,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>18</v>
@@ -3185,22 +3182,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3208,19 +3205,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3228,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3254,39 +3251,39 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>101</v>
@@ -3295,254 +3292,254 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3550,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3576,19 +3573,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3596,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3619,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3642,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3668,19 +3665,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3691,19 +3688,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3714,19 +3711,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3737,19 +3734,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3760,19 +3757,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3783,19 +3780,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3806,19 +3803,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3829,19 +3826,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3852,19 +3849,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3872,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3895,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3921,19 +3918,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3944,19 +3941,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3964,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3990,19 +3987,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4010,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4036,19 +4033,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4059,19 +4056,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4082,19 +4079,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4105,19 +4102,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4128,19 +4125,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4151,19 +4148,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4174,19 +4171,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4197,19 +4194,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4220,19 +4217,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4243,19 +4240,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4266,19 +4263,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4289,19 +4286,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4312,278 +4309,278 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171">
@@ -4591,7 +4588,7 @@
         <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -4600,7 +4597,7 @@
         <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4611,292 +4608,292 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>157</v>
@@ -4905,159 +4902,159 @@
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>157</v>
@@ -5066,122 +5063,122 @@
         <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197">
@@ -5189,30 +5186,30 @@
         <v>171</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5221,21 +5218,21 @@
         <v>175</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>14</v>
@@ -5244,21 +5241,21 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>14</v>
@@ -5267,21 +5264,21 @@
         <v>175</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>14</v>
@@ -5290,21 +5287,21 @@
         <v>175</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>14</v>
@@ -5313,21 +5310,21 @@
         <v>175</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>14</v>
@@ -5336,90 +5333,90 @@
         <v>175</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5428,21 +5425,21 @@
         <v>175</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5451,21 +5448,21 @@
         <v>175</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>14</v>
@@ -5474,702 +5471,426 @@
         <v>175</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="G214" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="G216" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="G217" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -290,6 +290,30 @@
     <t>opzionale</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>avvenuto</t>
   </si>
   <si>
@@ -300,6 +324,12 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -658,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -668,7 +698,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2202,10 +2232,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2216,114 +2246,114 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2331,19 +2361,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2384,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2377,22 +2407,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2400,19 +2430,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2423,22 +2453,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2446,22 +2476,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2469,22 +2499,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2492,19 +2522,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,22 +2545,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
@@ -2538,22 +2568,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2561,19 +2591,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2584,22 +2614,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2607,19 +2637,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2630,22 +2660,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2653,22 +2683,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2676,22 +2706,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2699,19 +2729,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2722,22 +2752,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2745,19 +2775,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
@@ -2768,19 +2798,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2821,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2844,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2867,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2860,22 +2890,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2883,19 +2913,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2936,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
@@ -2929,22 +2959,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2952,19 +2982,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2975,22 +3005,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2998,19 +3028,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3051,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3074,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3097,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3120,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3143,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>18</v>
@@ -3136,19 +3166,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3189,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>18</v>
@@ -3182,19 +3212,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>18</v>
@@ -3205,19 +3235,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3258,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3281,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3274,272 +3304,272 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3550,22 +3580,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3573,272 +3603,272 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3849,19 +3879,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3872,19 +3902,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3895,19 +3925,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3918,19 +3948,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3941,19 +3971,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3964,19 +3994,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3987,19 +4017,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4040,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4033,19 +4063,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4056,19 +4086,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4079,19 +4109,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4132,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4155,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4178,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4171,19 +4201,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4194,19 +4224,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4217,19 +4247,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4240,19 +4270,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4263,19 +4293,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4316,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4309,19 +4339,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4332,1565 +4362,1864 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E194" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="F235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="C236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -338,274 +344,202 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Atto Consenso Madre</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
-  </si>
-  <si>
-    <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -688,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1694,712 +1628,712 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2407,19 +2341,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2364,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2387,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2410,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2499,22 +2433,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2522,19 +2456,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2545,22 +2479,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
@@ -2568,19 +2502,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>18</v>
@@ -2591,19 +2525,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2614,22 +2548,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2637,22 +2571,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2660,19 +2594,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2617,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2706,22 +2640,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2729,19 +2663,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2752,22 +2686,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2775,19 +2709,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
@@ -2798,19 +2732,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2821,22 +2755,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2844,22 +2778,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2867,19 +2801,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2890,22 +2824,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2913,19 +2847,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2936,22 +2870,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2959,19 +2893,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
@@ -2982,22 +2916,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -3005,22 +2939,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -3028,22 +2962,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -3051,22 +2985,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -3074,19 +3008,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3031,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3054,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3143,22 +3077,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3166,19 +3100,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3189,22 +3123,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3212,22 +3146,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3235,22 +3169,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3258,19 +3192,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3281,22 +3215,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3304,22 +3238,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3327,19 +3261,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3350,22 +3284,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3373,19 +3307,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3396,22 +3330,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>30</v>
@@ -3419,22 +3353,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3442,22 +3376,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>30</v>
@@ -3465,19 +3399,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3488,22 +3422,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -3511,22 +3445,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3534,22 +3468,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3557,19 +3491,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3580,22 +3514,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3606,22 +3540,22 @@
         <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -3629,22 +3563,22 @@
         <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -3652,22 +3586,22 @@
         <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
@@ -3675,200 +3609,200 @@
         <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3879,19 +3813,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3902,19 +3836,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3925,19 +3859,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3948,19 +3882,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3971,19 +3905,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3994,19 +3928,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4017,19 +3951,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4040,19 +3974,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4063,19 +3997,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4086,19 +4020,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4109,19 +4043,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4132,19 +4066,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4155,19 +4089,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4178,19 +4112,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4201,19 +4135,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4224,19 +4158,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4247,19 +4181,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4270,19 +4204,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4293,19 +4227,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4316,19 +4250,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4339,19 +4273,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4362,19 +4296,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4385,19 +4319,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4408,19 +4342,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4431,19 +4365,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4454,19 +4388,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4477,19 +4411,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4500,19 +4434,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4523,33 +4457,33 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
@@ -4558,21 +4492,21 @@
         <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>14</v>
@@ -4581,1502 +4515,1502 @@
         <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
@@ -6087,139 +6021,24 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -59,7 +59,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
   </si>
   <si>
     <t>Autorizzazione del tribunale</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="186">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -622,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1651,735 +1657,735 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2502,22 +2508,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
@@ -2571,22 +2577,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>30</v>
@@ -2594,22 +2600,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2617,22 +2623,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2686,22 +2692,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2709,22 +2715,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>30</v>
@@ -2732,22 +2738,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>30</v>
@@ -2755,22 +2761,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2778,19 +2784,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2830,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2847,22 +2853,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2870,19 +2876,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2893,22 +2899,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2916,19 +2922,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2939,22 +2945,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2962,19 +2968,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>18</v>
@@ -2985,22 +2991,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -3008,22 +3014,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3031,22 +3037,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3054,22 +3060,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3169,22 +3175,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3215,22 +3221,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>18</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3284,22 +3290,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3307,22 +3313,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3330,19 +3336,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3359,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3382,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
@@ -3399,19 +3405,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
@@ -3445,22 +3451,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3468,22 +3474,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3491,19 +3497,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3514,22 +3520,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3537,22 +3543,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3560,22 +3566,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3583,19 +3589,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3606,22 +3612,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3632,16 +3638,16 @@
         <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
         <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3678,16 +3684,16 @@
         <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3707,19 @@
         <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3721,19 +3727,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3744,19 +3750,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3767,19 +3773,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3790,19 +3796,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3813,19 +3819,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3836,19 +3842,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3859,19 +3865,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3882,19 +3888,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3905,19 +3911,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3928,19 +3934,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3951,19 +3957,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3974,19 +3980,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3997,19 +4003,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4020,19 +4026,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4043,19 +4049,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4066,19 +4072,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4089,19 +4095,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4112,19 +4118,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4135,19 +4141,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4158,19 +4164,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4184,16 +4190,16 @@
         <v>112</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4207,16 +4213,16 @@
         <v>112</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4230,16 +4236,16 @@
         <v>112</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4253,16 +4259,16 @@
         <v>112</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4276,16 +4282,16 @@
         <v>112</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4296,19 +4302,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4319,19 +4325,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4342,19 +4348,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4365,19 +4371,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4388,19 +4394,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4411,19 +4417,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4434,19 +4440,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4457,1588 +4463,1726 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="E208" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G228" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E235" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -628,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1680,758 +1686,758 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2468,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2491,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2514,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2554,22 +2560,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>30</v>
@@ -2577,19 +2583,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2623,22 +2629,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2646,22 +2652,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2669,22 +2675,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2692,22 +2698,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2761,22 +2767,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2784,22 +2790,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2807,22 +2813,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2830,22 +2836,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2853,19 +2859,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
@@ -2876,19 +2882,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2899,22 +2905,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2922,22 +2928,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2945,19 +2951,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2968,22 +2974,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3014,22 +3020,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
@@ -3060,22 +3066,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3083,22 +3089,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3106,22 +3112,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3129,22 +3135,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3175,19 +3181,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3244,22 +3250,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3290,22 +3296,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3313,19 +3319,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>18</v>
@@ -3336,19 +3342,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3359,22 +3365,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3382,19 +3388,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
@@ -3405,19 +3411,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3428,22 +3434,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -3451,22 +3457,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3474,19 +3480,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>18</v>
@@ -3497,19 +3503,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3520,19 +3526,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>18</v>
@@ -3543,22 +3549,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3566,22 +3572,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3589,19 +3595,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3612,22 +3618,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3635,22 +3641,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>30</v>
@@ -3658,22 +3664,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3681,19 +3687,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3704,22 +3710,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3730,16 +3736,16 @@
         <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3753,19 +3759,19 @@
         <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>30</v>
@@ -3776,16 +3782,16 @@
         <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3799,19 +3805,19 @@
         <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>30</v>
@@ -3819,19 +3825,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3842,19 +3848,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3865,19 +3871,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3888,19 +3894,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3911,19 +3917,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3934,19 +3940,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3957,19 +3963,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3980,19 +3986,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4003,19 +4009,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4026,19 +4032,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4049,19 +4055,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4072,19 +4078,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4095,19 +4101,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4118,19 +4124,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4141,19 +4147,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4164,19 +4170,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4187,19 +4193,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4210,19 +4216,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4233,19 +4239,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4256,19 +4262,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4279,19 +4285,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4305,16 +4311,16 @@
         <v>114</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4328,16 +4334,16 @@
         <v>114</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4351,16 +4357,16 @@
         <v>114</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4374,16 +4380,16 @@
         <v>114</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4397,16 +4403,16 @@
         <v>114</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4417,19 +4423,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4440,19 +4446,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4463,19 +4469,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4486,19 +4492,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4509,19 +4515,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4532,19 +4538,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4555,19 +4561,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4578,1611 +4584,1749 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G234" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E241" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="190">
   <si>
     <t>Sezione</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -634,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4682,7 +4688,7 @@
         <v>138</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>118</v>
@@ -4699,1560 +4705,1560 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G240" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6263,22 +6269,22 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>30</v>
@@ -6286,19 +6292,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -6309,24 +6315,93 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E247" s="2" t="s">
+      <c r="E249" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -354,12 +354,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -640,16 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3834,16 +3828,16 @@
         <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3857,16 +3851,16 @@
         <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3880,16 +3874,16 @@
         <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3903,16 +3897,16 @@
         <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3926,16 +3920,16 @@
         <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3949,16 +3943,16 @@
         <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3972,16 +3966,16 @@
         <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3995,16 +3989,16 @@
         <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4018,16 +4012,16 @@
         <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4041,16 +4035,16 @@
         <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4064,16 +4058,16 @@
         <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4087,16 +4081,16 @@
         <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4110,16 +4104,16 @@
         <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4130,453 +4124,453 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>29</v>
@@ -4585,44 +4579,44 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>32</v>
@@ -4631,1777 +4625,1179 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G250" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -5326,7 +5326,7 @@
         <v>67</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>166</v>
@@ -5349,7 +5349,7 @@
         <v>69</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>166</v>
@@ -5358,7 +5358,7 @@
         <v>70</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>168</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -56,19 +56,19 @@
     <t>Copia dell'atto di riconoscimento effettuato dell'altro genitore</t>
   </si>
   <si>
+    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
-  </si>
-  <si>
-    <t>Autorizzazione del tribunale</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>109</t>
   </si>
   <si>
     <t>194</t>
@@ -726,7 +726,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -979,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -1025,7 +1025,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -1048,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1071,7 +1071,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -1094,7 +1094,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -1724,7 +1724,7 @@
         <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>97</v>
@@ -1738,7 +1738,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>96</v>
@@ -1784,7 +1784,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>96</v>
@@ -1807,7 +1807,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>96</v>
@@ -1830,7 +1830,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>96</v>
@@ -1853,7 +1853,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>96</v>
@@ -1908,7 +1908,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>97</v>
@@ -1954,7 +1954,7 @@
         <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>97</v>
@@ -1977,7 +1977,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>97</v>
@@ -1991,7 +1991,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>96</v>
@@ -2014,7 +2014,7 @@
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>96</v>
@@ -2046,7 +2046,7 @@
         <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>97</v>
@@ -2069,7 +2069,7 @@
         <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -2115,7 +2115,7 @@
         <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>97</v>
@@ -2161,7 +2161,7 @@
         <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>97</v>
@@ -2207,7 +2207,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>97</v>
@@ -2230,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>97</v>
@@ -2244,7 +2244,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>96</v>
@@ -2267,7 +2267,7 @@
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>96</v>
@@ -2290,7 +2290,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>96</v>
@@ -2345,7 +2345,7 @@
         <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>97</v>
@@ -2391,7 +2391,7 @@
         <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>97</v>
@@ -2437,7 +2437,7 @@
         <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2451,7 +2451,7 @@
         <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>109</v>
@@ -2497,7 +2497,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>109</v>
@@ -2520,7 +2520,7 @@
         <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>109</v>
@@ -2543,7 +2543,7 @@
         <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>109</v>
@@ -2566,7 +2566,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>109</v>
@@ -2621,7 +2621,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2667,7 +2667,7 @@
         <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2690,7 +2690,7 @@
         <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2704,7 +2704,7 @@
         <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>109</v>
@@ -2727,7 +2727,7 @@
         <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>109</v>
@@ -2759,7 +2759,7 @@
         <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>30</v>
@@ -2782,7 +2782,7 @@
         <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2828,7 +2828,7 @@
         <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2874,7 +2874,7 @@
         <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2920,7 +2920,7 @@
         <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2943,7 +2943,7 @@
         <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2957,7 +2957,7 @@
         <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>109</v>
@@ -2980,7 +2980,7 @@
         <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>109</v>
@@ -3003,7 +3003,7 @@
         <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>109</v>
@@ -3058,7 +3058,7 @@
         <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3104,7 +3104,7 @@
         <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3127,7 +3127,7 @@
         <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3150,7 +3150,7 @@
         <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3164,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
@@ -3210,7 +3210,7 @@
         <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>113</v>
@@ -3233,7 +3233,7 @@
         <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>113</v>
@@ -3256,7 +3256,7 @@
         <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>113</v>
@@ -3279,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>113</v>
@@ -3334,7 +3334,7 @@
         <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3380,7 +3380,7 @@
         <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3403,7 +3403,7 @@
         <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>30</v>
@@ -3417,7 +3417,7 @@
         <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>113</v>
@@ -3440,7 +3440,7 @@
         <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>113</v>
@@ -3472,7 +3472,7 @@
         <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3495,7 +3495,7 @@
         <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3541,7 +3541,7 @@
         <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3587,7 +3587,7 @@
         <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3633,7 +3633,7 @@
         <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3656,7 +3656,7 @@
         <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>30</v>
@@ -3670,7 +3670,7 @@
         <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>113</v>
@@ -3693,7 +3693,7 @@
         <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>113</v>
@@ -3716,7 +3716,7 @@
         <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>113</v>
@@ -3771,7 +3771,7 @@
         <v>101</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>30</v>
@@ -3817,7 +3817,7 @@
         <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>30</v>
@@ -3854,7 +3854,7 @@
         <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>116</v>
@@ -3877,7 +3877,7 @@
         <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>116</v>
@@ -3900,7 +3900,7 @@
         <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>116</v>
@@ -3923,7 +3923,7 @@
         <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>116</v>
@@ -3946,7 +3946,7 @@
         <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>116</v>
@@ -3969,7 +3969,7 @@
         <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>116</v>
@@ -3992,7 +3992,7 @@
         <v>129</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>116</v>
@@ -4015,7 +4015,7 @@
         <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>116</v>
@@ -4107,7 +4107,7 @@
         <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>116</v>
@@ -4153,7 +4153,7 @@
         <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>141</v>
@@ -4176,7 +4176,7 @@
         <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>141</v>
@@ -4199,7 +4199,7 @@
         <v>122</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>141</v>
@@ -4222,7 +4222,7 @@
         <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>141</v>
@@ -4268,7 +4268,7 @@
         <v>128</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>141</v>
@@ -4291,7 +4291,7 @@
         <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>141</v>
@@ -4314,7 +4314,7 @@
         <v>131</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>141</v>
@@ -4452,7 +4452,7 @@
         <v>118</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>144</v>
@@ -4475,7 +4475,7 @@
         <v>120</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>144</v>
@@ -4498,7 +4498,7 @@
         <v>122</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>144</v>
@@ -4521,7 +4521,7 @@
         <v>124</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>144</v>
@@ -4544,7 +4544,7 @@
         <v>126</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>144</v>
@@ -4567,7 +4567,7 @@
         <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>144</v>
@@ -4590,7 +4590,7 @@
         <v>129</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>144</v>
@@ -4613,7 +4613,7 @@
         <v>131</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>144</v>
@@ -4645,7 +4645,7 @@
         <v>133</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>145</v>
@@ -4668,7 +4668,7 @@
         <v>135</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>145</v>
@@ -4691,7 +4691,7 @@
         <v>137</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>145</v>
@@ -4705,7 +4705,7 @@
         <v>138</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>144</v>
@@ -4737,7 +4737,7 @@
         <v>148</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>149</v>
@@ -4760,7 +4760,7 @@
         <v>151</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>149</v>
@@ -4783,7 +4783,7 @@
         <v>153</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>149</v>
@@ -4829,7 +4829,7 @@
         <v>157</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>149</v>
@@ -4875,7 +4875,7 @@
         <v>161</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>149</v>
@@ -4898,7 +4898,7 @@
         <v>148</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>164</v>
@@ -4921,7 +4921,7 @@
         <v>151</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>164</v>
@@ -4944,7 +4944,7 @@
         <v>153</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>164</v>
@@ -4990,7 +4990,7 @@
         <v>157</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>164</v>
@@ -5036,7 +5036,7 @@
         <v>161</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>164</v>
@@ -5073,7 +5073,7 @@
         <v>45</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>166</v>
@@ -5119,7 +5119,7 @@
         <v>49</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>166</v>
@@ -5142,7 +5142,7 @@
         <v>51</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>166</v>
@@ -5165,7 +5165,7 @@
         <v>53</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>166</v>
@@ -5188,7 +5188,7 @@
         <v>55</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>166</v>
@@ -5579,7 +5579,7 @@
         <v>89</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>166</v>
@@ -5602,7 +5602,7 @@
         <v>91</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>166</v>
@@ -5625,7 +5625,7 @@
         <v>169</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>166</v>
@@ -5648,7 +5648,7 @@
         <v>171</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>172</v>
@@ -5694,7 +5694,7 @@
         <v>176</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>28</v>
@@ -5717,7 +5717,7 @@
         <v>178</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>179</v>
@@ -5763,7 +5763,7 @@
         <v>183</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>184</v>
@@ -5786,7 +5786,7 @@
         <v>186</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>179</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -440,7 +440,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
     <t>Atto Consenso Madre</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="192">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -634,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1709,827 +1721,827 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2537,19 +2549,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2595,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2606,22 +2618,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2629,22 +2641,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2652,22 +2664,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2675,22 +2687,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2698,19 +2710,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2733,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2756,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
@@ -2767,22 +2779,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2790,22 +2802,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2813,19 +2825,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>17</v>
@@ -2836,19 +2848,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2859,22 +2871,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2882,22 +2894,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2905,19 +2917,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>17</v>
@@ -2928,22 +2940,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2951,22 +2963,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2974,19 +2986,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2997,22 +3009,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -3020,19 +3032,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3055,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>17</v>
@@ -3066,22 +3078,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3089,22 +3101,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3112,22 +3124,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3138,19 +3150,19 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3161,16 +3173,16 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3184,7 +3196,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3193,10 +3205,10 @@
         <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3207,16 +3219,16 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3242,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3253,19 +3265,19 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3273,22 +3285,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>30</v>
@@ -3296,19 +3308,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3319,22 +3331,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3342,19 +3354,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3365,22 +3377,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3388,19 +3400,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>17</v>
@@ -3411,19 +3423,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3434,19 +3446,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3457,22 +3469,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3480,22 +3492,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3503,22 +3515,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>30</v>
@@ -3526,22 +3538,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3549,22 +3561,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3572,19 +3584,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>17</v>
@@ -3595,19 +3607,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3618,22 +3630,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3641,19 +3653,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>17</v>
@@ -3664,22 +3676,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3687,19 +3699,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3710,22 +3722,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3733,19 +3745,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3756,19 +3768,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>17</v>
@@ -3779,19 +3791,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3802,19 +3814,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>17</v>
@@ -3825,22 +3837,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>30</v>
@@ -3848,19 +3860,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3871,19 +3883,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3894,19 +3906,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3917,19 +3929,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3940,22 +3952,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>30</v>
@@ -3963,19 +3975,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3986,22 +3998,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>30</v>
@@ -4009,19 +4021,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4032,19 +4044,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4055,19 +4067,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4078,19 +4090,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4101,19 +4113,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4124,620 +4136,620 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>149</v>
@@ -4745,22 +4757,22 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>149</v>
@@ -4768,22 +4780,22 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>149</v>
@@ -4791,19 +4803,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4814,19 +4826,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
@@ -4837,22 +4849,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>149</v>
@@ -4860,19 +4872,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
@@ -4883,30 +4895,30 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>150</v>
@@ -4915,174 +4927,174 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>168</v>
@@ -5090,22 +5102,22 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>168</v>
@@ -5113,22 +5125,22 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>168</v>
@@ -5136,19 +5148,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5159,22 +5171,22 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>168</v>
@@ -5182,19 +5194,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5205,22 +5217,22 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>168</v>
@@ -5228,576 +5240,806 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E220" s="2" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E224" s="2" t="s">
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -320,6 +320,9 @@
     <t>opzionale</t>
   </si>
   <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -531,9 +534,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2391,10 +2391,10 @@
         <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>100</v>
@@ -2403,7 +2403,7 @@
         <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>101</v>
@@ -2414,7 +2414,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2423,7 +2423,7 @@
         <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2437,7 +2437,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2446,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -2460,7 +2460,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2469,7 +2469,7 @@
         <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2483,7 +2483,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
@@ -2506,16 +2506,16 @@
         <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
@@ -2535,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>44</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>45</v>
@@ -2558,7 +2558,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>46</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>47</v>
@@ -2581,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>48</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>49</v>
@@ -2604,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>50</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>51</v>
@@ -2627,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>52</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>53</v>
@@ -2650,7 +2650,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>54</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>55</v>
@@ -2673,7 +2673,7 @@
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>56</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>57</v>
@@ -2696,7 +2696,7 @@
         <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>58</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>59</v>
@@ -2719,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>60</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>61</v>
@@ -2742,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>62</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>63</v>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>64</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>65</v>
@@ -2788,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>66</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>67</v>
@@ -2811,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>68</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>69</v>
@@ -2834,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>70</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>71</v>
@@ -2857,7 +2857,7 @@
         <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>72</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>73</v>
@@ -2880,7 +2880,7 @@
         <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>74</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>75</v>
@@ -2903,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>76</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>77</v>
@@ -2926,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>78</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>79</v>
@@ -2949,7 +2949,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>80</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>81</v>
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>82</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>83</v>
@@ -2995,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>84</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>85</v>
@@ -3018,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>86</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>87</v>
@@ -3041,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>88</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>89</v>
@@ -3064,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>90</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>91</v>
@@ -3087,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>92</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>93</v>
@@ -3110,7 +3110,7 @@
         <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>94</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>95</v>
@@ -3133,7 +3133,7 @@
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>96</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>97</v>
@@ -3156,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>98</v>
@@ -3170,19 +3170,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3193,19 +3193,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>17</v>
@@ -3216,19 +3216,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3239,19 +3239,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>17</v>
@@ -3262,19 +3262,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>17</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>42</v>
@@ -3294,7 +3294,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>44</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>45</v>
@@ -3317,7 +3317,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>46</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>47</v>
@@ -3340,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>48</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>49</v>
@@ -3363,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>50</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>51</v>
@@ -3386,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>52</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>53</v>
@@ -3409,7 +3409,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>54</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>55</v>
@@ -3432,7 +3432,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>56</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>57</v>
@@ -3455,7 +3455,7 @@
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>58</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>59</v>
@@ -3478,7 +3478,7 @@
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>60</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>61</v>
@@ -3501,7 +3501,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>62</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>63</v>
@@ -3524,7 +3524,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>64</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>65</v>
@@ -3547,7 +3547,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>66</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>67</v>
@@ -3570,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>68</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>69</v>
@@ -3593,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>70</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>71</v>
@@ -3616,7 +3616,7 @@
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>72</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>73</v>
@@ -3639,7 +3639,7 @@
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>74</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>75</v>
@@ -3662,7 +3662,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>76</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>77</v>
@@ -3685,7 +3685,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>78</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>79</v>
@@ -3708,7 +3708,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>80</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>81</v>
@@ -3731,7 +3731,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>82</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>83</v>
@@ -3754,7 +3754,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>84</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>85</v>
@@ -3777,7 +3777,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>86</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>87</v>
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>88</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>89</v>
@@ -3823,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>90</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>91</v>
@@ -3846,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>92</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>93</v>
@@ -3869,7 +3869,7 @@
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>94</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>95</v>
@@ -3892,7 +3892,7 @@
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>96</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>97</v>
@@ -3915,7 +3915,7 @@
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>98</v>
@@ -3929,19 +3929,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3952,19 +3952,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>17</v>
@@ -3975,19 +3975,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3998,19 +3998,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>17</v>
@@ -4021,19 +4021,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4044,19 +4044,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4067,19 +4067,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4090,19 +4090,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4113,19 +4113,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4136,19 +4136,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4159,16 +4159,16 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>29</v>
@@ -4182,19 +4182,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4205,16 +4205,16 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>32</v>
@@ -4228,19 +4228,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4274,19 +4274,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4297,19 +4297,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4320,154 +4320,154 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>29</v>
@@ -4476,44 +4476,44 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>32</v>
@@ -4522,251 +4522,251 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>29</v>
@@ -4775,44 +4775,44 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>32</v>
@@ -4821,426 +4821,426 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>42</v>
@@ -5249,21 +5249,21 @@
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>45</v>
@@ -5272,7 +5272,7 @@
         <v>18</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>46</v>
@@ -5281,12 +5281,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>47</v>
@@ -5295,7 +5295,7 @@
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>48</v>
@@ -5304,12 +5304,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>49</v>
@@ -5318,7 +5318,7 @@
         <v>18</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>50</v>
@@ -5327,12 +5327,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>51</v>
@@ -5341,7 +5341,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>52</v>
@@ -5350,12 +5350,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>53</v>
@@ -5364,21 +5364,21 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>55</v>
@@ -5387,7 +5387,7 @@
         <v>18</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>56</v>
@@ -5396,12 +5396,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>57</v>
@@ -5410,7 +5410,7 @@
         <v>18</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>58</v>
@@ -5419,12 +5419,12 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>59</v>
@@ -5433,7 +5433,7 @@
         <v>18</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>60</v>
@@ -5442,12 +5442,12 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>61</v>
@@ -5456,7 +5456,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>62</v>
@@ -5465,12 +5465,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>63</v>
@@ -5479,21 +5479,21 @@
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>65</v>
@@ -5502,7 +5502,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>66</v>
@@ -5511,12 +5511,12 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>67</v>
@@ -5525,21 +5525,21 @@
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>69</v>
@@ -5548,21 +5548,21 @@
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>71</v>
@@ -5571,7 +5571,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>72</v>
@@ -5580,12 +5580,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>73</v>
@@ -5594,21 +5594,21 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>75</v>
@@ -5617,21 +5617,21 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>77</v>
@@ -5640,21 +5640,21 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>79</v>
@@ -5663,7 +5663,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>80</v>
@@ -5672,12 +5672,12 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>81</v>
@@ -5686,21 +5686,21 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>83</v>
@@ -5709,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>84</v>
@@ -5718,12 +5718,12 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>85</v>
@@ -5732,21 +5732,21 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>87</v>
@@ -5755,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>88</v>
@@ -5764,12 +5764,12 @@
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>89</v>
@@ -5778,21 +5778,21 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>91</v>
@@ -5801,21 +5801,21 @@
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>93</v>
@@ -5824,7 +5824,7 @@
         <v>18</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>94</v>
@@ -5833,12 +5833,12 @@
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>95</v>
@@ -5847,7 +5847,7 @@
         <v>18</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>96</v>
@@ -5856,21 +5856,21 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>98</v>
@@ -5879,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -449,81 +449,87 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Atto Consenso Madre</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.atto</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.altroUfficiale</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Sentenza di consenso</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.sentenzaTribunale</t>
+  </si>
+  <si>
+    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
+  </si>
+  <si>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
-    <t>Atto Consenso Madre</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.atto</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,2</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.altroUfficiale</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,3</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Sentenza di consenso</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.sentenzaTribunale</t>
-  </si>
-  <si>
-    <t>evento.consensoMadre.tipoConsenso,!=,4</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -561,9 +567,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -646,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -655,7 +658,7 @@
     <col min="1" max="1" width="20.51171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -4441,7 +4444,7 @@
         <v>131</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>146</v>
@@ -4542,7 +4545,7 @@
         <v>138</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>147</v>
@@ -4565,7 +4568,7 @@
         <v>140</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>147</v>
@@ -4588,7 +4591,7 @@
         <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>147</v>
@@ -4602,7 +4605,7 @@
         <v>143</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>146</v>
@@ -4619,10 +4622,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4631,1415 +4634,1139 @@
         <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
         <v>30</v>
       </c>
     </row>
